--- a/Reports/CCF.xlsx
+++ b/Reports/CCF.xlsx
@@ -6923,7 +6923,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2024-05-10 23:59:59</t>
+          <t>2024-05-15 23:59:59</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2024-05-03 23:59:59</t>
+          <t>Research Track Paper submission deadline</t>
         </is>
       </c>
     </row>
